--- a/Analytics/BIGFIVE/Goalmins_bf.xlsx
+++ b/Analytics/BIGFIVE/Goalmins_bf.xlsx
@@ -35,19 +35,19 @@
     <t>5</t>
   </si>
   <si>
-    <t>E0</t>
+    <t>SP1</t>
   </si>
   <si>
     <t>I1</t>
   </si>
   <si>
-    <t>SP1</t>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
   <si>
     <t>D1</t>
-  </si>
-  <si>
-    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -115,7 +115,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>64795.0</v>
+        <v>15693.0</v>
       </c>
     </row>
     <row r="3">
@@ -126,7 +126,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>50867.0</v>
+        <v>14838.0</v>
       </c>
     </row>
     <row r="4">
@@ -137,7 +137,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>50361.0</v>
+        <v>14004.0</v>
       </c>
     </row>
     <row r="5">
@@ -148,7 +148,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>48887.0</v>
+        <v>12938.0</v>
       </c>
     </row>
     <row r="6">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>40837.0</v>
+        <v>12737.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/BIGFIVE/Goalmins_bf.xlsx
+++ b/Analytics/BIGFIVE/Goalmins_bf.xlsx
@@ -38,16 +38,16 @@
     <t>SP1</t>
   </si>
   <si>
+    <t>E0</t>
+  </si>
+  <si>
     <t>I1</t>
   </si>
   <si>
-    <t>E0</t>
+    <t>D1</t>
   </si>
   <si>
     <t>F1</t>
-  </si>
-  <si>
-    <t>D1</t>
   </si>
 </sst>
 </file>
@@ -115,7 +115,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>15693.0</v>
+        <v>23016.0</v>
       </c>
     </row>
     <row r="3">
@@ -126,7 +126,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>14838.0</v>
+        <v>22974.0</v>
       </c>
     </row>
     <row r="4">
@@ -137,7 +137,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>14004.0</v>
+        <v>20846.0</v>
       </c>
     </row>
     <row r="5">
@@ -148,7 +148,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>12938.0</v>
+        <v>19759.0</v>
       </c>
     </row>
     <row r="6">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>12737.0</v>
+        <v>19408.0</v>
       </c>
     </row>
   </sheetData>
